--- a/Ground Station/Link Budgets.xlsx
+++ b/Ground Station/Link Budgets.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22416"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="0" windowWidth="24740" windowHeight="15620" activeTab="1"/>
+    <workbookView xWindow="4860" yWindow="0" windowWidth="24740" windowHeight="15620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprite Link Budget" sheetId="1" r:id="rId1"/>
     <sheet name="KickSat Bus Link Budget" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'KickSat Bus Link Budget'!$A$1:$I$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprite Link Budget'!$A$1:$I$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'KickSat Bus Link Budget'!$A$1:$I$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprite Link Budget'!$A$1:$I$55</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="80">
   <si>
     <t>Boltzmann Constant, k</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Carrier to Noise, C/N</t>
   </si>
   <si>
-    <t>Signal to Noise, S/N</t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>bps</t>
   </si>
   <si>
-    <t>Elevation Angle of Receiver from Horizon, φ</t>
-  </si>
-  <si>
     <t>Sprite Spacecraft</t>
   </si>
   <si>
@@ -268,6 +262,12 @@
   </si>
   <si>
     <t>KickSat Bus</t>
+  </si>
+  <si>
+    <t>Minimum Elevation Angle, φ</t>
+  </si>
+  <si>
+    <t>Minimum Eb/N0</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -911,7 +923,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -919,6 +931,12 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -926,6 +944,12 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1263,10 +1287,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P92"/>
+  <dimension ref="B1:P93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1288,24 +1312,24 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15">
       <c r="B1" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="15">
       <c r="B2" s="88" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:16" ht="15">
       <c r="B3" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="44"/>
@@ -1316,7 +1340,7 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="45"/>
@@ -1349,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="49" t="s">
@@ -1429,13 +1453,13 @@
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1">
       <c r="B10" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="55">
         <v>398658.36599999998</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -1448,7 +1472,7 @@
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1">
       <c r="B11" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="48"/>
@@ -1504,7 +1528,7 @@
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1">
       <c r="B14" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="48"/>
@@ -1531,7 +1555,7 @@
       <c r="E15" s="58"/>
       <c r="F15" s="53"/>
       <c r="G15" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H15" s="101"/>
       <c r="I15" s="17"/>
@@ -1542,7 +1566,7 @@
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="51" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C16" s="61">
         <v>30</v>
@@ -1553,7 +1577,7 @@
       <c r="E16" s="62"/>
       <c r="F16" s="53"/>
       <c r="G16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="101"/>
       <c r="I16" s="17"/>
@@ -1585,14 +1609,14 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="63">
         <f>2*PI()*SQRT((C9+C15)^3/C10)/60</f>
         <v>91.021840287839041</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="53"/>
@@ -1605,14 +1629,14 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="63">
         <f>SQRT(C10/(C9+C15))</f>
         <v>7.711898343441649</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="58"/>
       <c r="F19" s="53"/>
@@ -1626,14 +1650,14 @@
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="63">
         <f>C19*COS(C16*PI()/180)</f>
         <v>6.6786998768235977</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="58"/>
       <c r="F20" s="53"/>
@@ -1647,14 +1671,14 @@
     </row>
     <row r="21" spans="2:13" ht="15" thickBot="1">
       <c r="B21" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="63">
         <f>C20/(C8/1000)*(C12*1000000)/1000</f>
         <v>9.7286394872397075</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="58"/>
       <c r="F21" s="53"/>
@@ -1720,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1760,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="11"/>
@@ -1784,10 +1808,10 @@
         <v>24.62397997898956</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -1797,8 +1821,8 @@
       <c r="M27" s="21"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="105" t="s">
-        <v>75</v>
+      <c r="B28" s="51" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="108">
         <f>10^(E28/10)</f>
@@ -1812,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H28" s="103"/>
       <c r="I28" s="103"/>
@@ -1823,7 +1847,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="68">
         <f>10^(E29/10)</f>
@@ -1851,7 +1875,7 @@
         <v>50</v>
       </c>
       <c r="D30" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="65">
         <f>10*LOG10(C30*1000)</f>
@@ -1861,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -1898,7 +1922,7 @@
     </row>
     <row r="32" spans="2:13" ht="15" thickBot="1">
       <c r="B32" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="48"/>
@@ -1928,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -1955,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -1966,7 +1990,7 @@
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1">
       <c r="B35" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="59">
         <f>C33*C34</f>
@@ -1992,7 +2016,7 @@
     </row>
     <row r="36" spans="2:13" ht="15" thickBot="1">
       <c r="B36" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="48"/>
@@ -2014,12 +2038,12 @@
         <v>50</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="53"/>
       <c r="G37" s="89" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -2037,7 +2061,7 @@
         <v>97.65625</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="53"/>
@@ -2051,7 +2075,7 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="90">
         <v>512</v>
@@ -2060,7 +2084,7 @@
       <c r="E39" s="54"/>
       <c r="F39" s="53"/>
       <c r="G39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="11"/>
@@ -2095,7 +2119,7 @@
     </row>
     <row r="41" spans="2:13" ht="15" thickBot="1">
       <c r="B41" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="48"/>
@@ -2111,7 +2135,7 @@
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="77">
         <f>$C$34*$C$23*C29*$C$24*C26*C33</f>
@@ -2161,7 +2185,7 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="81">
         <f>C42*C40/C31</f>
@@ -2183,22 +2207,22 @@
       <c r="L44" s="16"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="2:13" ht="15" thickBot="1">
-      <c r="B45" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="84">
-        <f>10^(E45/10)</f>
-        <v>103.31139134911709</v>
-      </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86">
-        <f>E44-10</f>
-        <v>20.141482104577442</v>
-      </c>
-      <c r="F45" s="87" t="s">
+    <row r="45" spans="2:13">
+      <c r="B45" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="81">
+        <f>10*LOG10(E45)</f>
+        <v>10</v>
+      </c>
+      <c r="D45" s="78"/>
+      <c r="E45" s="79">
+        <v>10</v>
+      </c>
+      <c r="F45" s="82" t="s">
         <v>2</v>
       </c>
+      <c r="G45" s="32"/>
       <c r="H45" s="16"/>
       <c r="I45" s="11"/>
       <c r="J45" s="17"/>
@@ -2206,13 +2230,22 @@
       <c r="L45" s="16"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="2:13">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46" s="30"/>
+    <row r="46" spans="2:13" ht="15" thickBot="1">
+      <c r="B46" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="84">
+        <f>C44-C45</f>
+        <v>1023.1139134911698</v>
+      </c>
+      <c r="D46" s="85"/>
+      <c r="E46" s="86">
+        <f>E44-10</f>
+        <v>20.141482104577442</v>
+      </c>
+      <c r="F46" s="87" t="s">
+        <v>2</v>
+      </c>
       <c r="H46" s="16"/>
       <c r="I46" s="11"/>
       <c r="J46" s="17"/>
@@ -2226,7 +2259,7 @@
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47" s="91"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="16"/>
       <c r="I47" s="11"/>
       <c r="J47" s="17"/>
@@ -2240,6 +2273,7 @@
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
+      <c r="G48" s="91"/>
       <c r="H48" s="16"/>
       <c r="I48" s="11"/>
       <c r="J48" s="17"/>
@@ -2248,7 +2282,11 @@
       <c r="M48" s="21"/>
     </row>
     <row r="49" spans="2:14">
-      <c r="G49" s="32"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
       <c r="H49" s="16"/>
       <c r="I49" s="11"/>
       <c r="J49" s="17"/>
@@ -2257,7 +2295,7 @@
       <c r="M49" s="21"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="G50" s="4"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="16"/>
       <c r="I50" s="11"/>
       <c r="J50" s="17"/>
@@ -2284,11 +2322,7 @@
       <c r="M52" s="21"/>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="36"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="38"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="16"/>
       <c r="I53" s="11"/>
       <c r="J53" s="17"/>
@@ -2297,12 +2331,11 @@
       <c r="M53" s="21"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="4"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="4"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="38"/>
       <c r="H54" s="16"/>
       <c r="I54" s="11"/>
       <c r="J54" s="17"/>
@@ -2323,14 +2356,13 @@
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
       <c r="M55" s="21"/>
-      <c r="N55" s="37"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="10"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="13"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="4"/>
       <c r="H56" s="16"/>
       <c r="I56" s="11"/>
@@ -2341,31 +2373,31 @@
       <c r="N56" s="37"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="4"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="16"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="13"/>
+      <c r="H57" s="16"/>
       <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="13"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="21"/>
       <c r="N57" s="37"/>
     </row>
     <row r="58" spans="2:14">
       <c r="B58" s="4"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="17"/>
-      <c r="F58" s="22"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="12"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="13"/>
       <c r="L58" s="16"/>
       <c r="M58" s="21"/>
       <c r="N58" s="37"/>
@@ -2374,60 +2406,60 @@
       <c r="B59" s="4"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="22"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="13"/>
+      <c r="K59" s="12"/>
       <c r="L59" s="16"/>
-      <c r="M59" s="17"/>
+      <c r="M59" s="21"/>
       <c r="N59" s="37"/>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="10"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="16"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="4"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
+      <c r="J60" s="17"/>
       <c r="K60" s="13"/>
       <c r="L60" s="16"/>
-      <c r="M60" s="21"/>
+      <c r="M60" s="17"/>
       <c r="N60" s="37"/>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="4"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="17"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
       <c r="L61" s="16"/>
       <c r="M61" s="21"/>
       <c r="N61" s="37"/>
     </row>
     <row r="62" spans="2:14">
       <c r="B62" s="4"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="23"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="92"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="11"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="14"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="13"/>
+      <c r="K62" s="16"/>
       <c r="L62" s="16"/>
-      <c r="M62" s="28"/>
+      <c r="M62" s="21"/>
       <c r="N62" s="37"/>
     </row>
     <row r="63" spans="2:14">
@@ -2436,21 +2468,21 @@
       <c r="D63" s="23"/>
       <c r="E63" s="17"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="17"/>
-      <c r="K63" s="25"/>
+      <c r="K63" s="13"/>
       <c r="L63" s="16"/>
-      <c r="M63" s="17"/>
+      <c r="M63" s="28"/>
       <c r="N63" s="37"/>
     </row>
     <row r="64" spans="2:14">
       <c r="B64" s="4"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="35"/>
+      <c r="F64" s="23"/>
       <c r="G64" s="4"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
@@ -2462,11 +2494,11 @@
     </row>
     <row r="65" spans="2:14">
       <c r="B65" s="4"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="17"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="36"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="17"/>
@@ -2481,84 +2513,84 @@
       <c r="D66" s="24"/>
       <c r="E66" s="17"/>
       <c r="F66" s="24"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
       <c r="J66" s="17"/>
-      <c r="K66" s="24"/>
+      <c r="K66" s="25"/>
       <c r="L66" s="16"/>
       <c r="M66" s="17"/>
       <c r="N66" s="37"/>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="36"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="25"/>
+      <c r="K67" s="24"/>
       <c r="L67" s="16"/>
       <c r="M67" s="17"/>
       <c r="N67" s="37"/>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="40"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
       <c r="G68" s="36"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="38"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="16"/>
       <c r="M68" s="17"/>
       <c r="N68" s="37"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="34"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="17"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="16"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="38"/>
       <c r="M69" s="17"/>
       <c r="N69" s="37"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="10"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="16"/>
-      <c r="D70" s="9"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="17"/>
       <c r="F70" s="16"/>
       <c r="G70" s="4"/>
       <c r="H70" s="16"/>
-      <c r="I70" s="14"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="16"/>
+      <c r="K70" s="17"/>
       <c r="L70" s="16"/>
-      <c r="M70" s="21"/>
+      <c r="M70" s="17"/>
       <c r="N70" s="37"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="4"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="16"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="17"/>
       <c r="F71" s="16"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="17"/>
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
@@ -2567,13 +2599,13 @@
     </row>
     <row r="72" spans="2:14">
       <c r="B72" s="4"/>
-      <c r="C72" s="9"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="4"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="17"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="16"/>
       <c r="J72" s="17"/>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
@@ -2581,18 +2613,18 @@
       <c r="N72" s="37"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="26"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
       <c r="G73" s="4"/>
       <c r="H73" s="16"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
+      <c r="K73" s="16"/>
       <c r="L73" s="16"/>
-      <c r="M73" s="17"/>
+      <c r="M73" s="21"/>
       <c r="N73" s="37"/>
     </row>
     <row r="74" spans="2:14">
@@ -2603,19 +2635,19 @@
       <c r="F74" s="16"/>
       <c r="G74" s="4"/>
       <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="16"/>
+      <c r="K74" s="17"/>
       <c r="L74" s="16"/>
-      <c r="M74" s="21"/>
+      <c r="M74" s="17"/>
       <c r="N74" s="37"/>
     </row>
     <row r="75" spans="2:14">
       <c r="B75" s="26"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="4"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
@@ -2626,16 +2658,16 @@
       <c r="N75" s="37"/>
     </row>
     <row r="76" spans="2:14">
-      <c r="B76" s="4"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
       <c r="G76" s="4"/>
       <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
+      <c r="I76" s="16"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
+      <c r="K76" s="16"/>
       <c r="L76" s="16"/>
       <c r="M76" s="21"/>
       <c r="N76" s="37"/>
@@ -2667,7 +2699,7 @@
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
       <c r="L78" s="16"/>
-      <c r="M78" s="17"/>
+      <c r="M78" s="21"/>
       <c r="N78" s="37"/>
     </row>
     <row r="79" spans="2:14">
@@ -2677,10 +2709,10 @@
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
       <c r="L79" s="16"/>
       <c r="M79" s="17"/>
       <c r="N79" s="37"/>
@@ -2692,10 +2724,10 @@
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
       <c r="L80" s="16"/>
       <c r="M80" s="17"/>
       <c r="N80" s="37"/>
@@ -2866,6 +2898,11 @@
       <c r="N91" s="37"/>
     </row>
     <row r="92" spans="2:14">
+      <c r="B92" s="4"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
       <c r="G92" s="4"/>
       <c r="H92" s="16"/>
       <c r="I92" s="17"/>
@@ -2874,6 +2911,16 @@
       <c r="L92" s="16"/>
       <c r="M92" s="17"/>
       <c r="N92" s="37"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="G93" s="4"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="37"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2889,12 +2936,12 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C62:D64 F62:F64 H63:I65 K63:K65 H67:I67 K67 E53 C53 C42 E42:E44">
+  <conditionalFormatting sqref="C63:D65 F63:F65 H64:I66 K64:K66 H68:I68 K68 E54 C54 C42 E42:E45">
     <cfRule type="cellIs" dxfId="5" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64:D66 F64:F66 C53 C44">
+  <conditionalFormatting sqref="C65:D67 F65:F67 C54 C44:C45">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>5</formula>
     </cfRule>
@@ -2920,10 +2967,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:P93"/>
+  <dimension ref="B1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2945,24 +2992,24 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15">
       <c r="B1" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="5"/>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="15">
       <c r="B2" s="111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:16" ht="15">
       <c r="B3" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="44"/>
@@ -2973,7 +3020,7 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="45"/>
@@ -3006,7 +3053,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="49" t="s">
@@ -3086,13 +3133,13 @@
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1">
       <c r="B10" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="55">
         <v>398658.36599999998</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -3105,7 +3152,7 @@
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1">
       <c r="B11" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="48"/>
@@ -3161,7 +3208,7 @@
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1">
       <c r="B14" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="48"/>
@@ -3188,7 +3235,7 @@
       <c r="E15" s="58"/>
       <c r="F15" s="53"/>
       <c r="G15" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H15" s="101"/>
       <c r="I15" s="17"/>
@@ -3199,7 +3246,7 @@
     </row>
     <row r="16" spans="2:16">
       <c r="B16" s="51" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C16" s="61">
         <v>30</v>
@@ -3210,7 +3257,7 @@
       <c r="E16" s="62"/>
       <c r="F16" s="53"/>
       <c r="G16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="101"/>
       <c r="I16" s="17"/>
@@ -3242,14 +3289,14 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="63">
         <f>2*PI()*SQRT((C9+C15)^3/C10)/60</f>
         <v>91.021840287839041</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="62"/>
       <c r="F18" s="53"/>
@@ -3262,14 +3309,14 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="63">
         <f>SQRT(C10/(C9+C15))</f>
         <v>7.711898343441649</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="58"/>
       <c r="F19" s="53"/>
@@ -3283,14 +3330,14 @@
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="63">
         <f>C19*COS(C16*PI()/180)</f>
         <v>6.6786998768235977</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="58"/>
       <c r="F20" s="53"/>
@@ -3304,14 +3351,14 @@
     </row>
     <row r="21" spans="2:13" ht="15" thickBot="1">
       <c r="B21" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="63">
         <f>C20/(C8/1000)*(C12*1000000)/1000</f>
         <v>53.429599014588781</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="58"/>
       <c r="F21" s="53"/>
@@ -3377,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -3407,17 +3454,17 @@
       </c>
       <c r="C26" s="68">
         <f>10^(E26/10)</f>
-        <v>141.25375446227542</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="95"/>
       <c r="E26" s="99">
-        <v>21.5</v>
+        <v>30</v>
       </c>
       <c r="F26" s="96" t="s">
         <v>2</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="11"/>
@@ -3441,10 +3488,10 @@
         <v>24.62397997898956</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
@@ -3455,7 +3502,7 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="105" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="108">
         <f>10^(E28/10)</f>
@@ -3469,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H28" s="103"/>
       <c r="I28" s="103"/>
@@ -3480,7 +3527,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="68">
         <f>10^(E29/10)</f>
@@ -3508,7 +3555,7 @@
         <v>350</v>
       </c>
       <c r="D30" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="65">
         <f>10*LOG10(C30*1000)</f>
@@ -3518,7 +3565,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
@@ -3555,7 +3602,7 @@
     </row>
     <row r="32" spans="2:13" ht="15" thickBot="1">
       <c r="B32" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="48"/>
@@ -3585,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
@@ -3612,7 +3659,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -3623,7 +3670,7 @@
     </row>
     <row r="35" spans="2:13" ht="15" thickBot="1">
       <c r="B35" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="59">
         <f>C33*C34</f>
@@ -3649,7 +3696,7 @@
     </row>
     <row r="36" spans="2:13" ht="15" thickBot="1">
       <c r="B36" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="48"/>
@@ -3671,12 +3718,12 @@
         <v>50</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="53"/>
       <c r="G37" s="89" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
@@ -3691,10 +3738,10 @@
       </c>
       <c r="C38" s="54">
         <f>C37*1000/C39</f>
-        <v>97.65625</v>
+        <v>50000</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="53"/>
@@ -3708,16 +3755,16 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="90">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D39" s="75"/>
       <c r="E39" s="54"/>
       <c r="F39" s="53"/>
       <c r="G39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="11"/>
@@ -3732,12 +3779,12 @@
       </c>
       <c r="C40" s="54">
         <f>C39</f>
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D40" s="53"/>
       <c r="E40" s="54">
         <f>10*LOG10(C40)</f>
-        <v>27.092699609758309</v>
+        <v>0</v>
       </c>
       <c r="F40" s="53" t="s">
         <v>2</v>
@@ -3752,7 +3799,7 @@
     </row>
     <row r="41" spans="2:13" ht="15" thickBot="1">
       <c r="B41" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="48"/>
@@ -3768,18 +3815,18 @@
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="77">
         <f>$C$34*$C$23*C29*$C$24*C26*C33</f>
-        <v>1.8917787109211652E-14</v>
+        <v>1.3392767633842976E-13</v>
       </c>
       <c r="D42" s="78" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="79">
         <f>$E$34+$E$23+$E$24+E29+E26+E33</f>
-        <v>-137.2470993811757</v>
+        <v>-128.7470993811757</v>
       </c>
       <c r="F42" s="78" t="s">
         <v>6</v>
@@ -3794,18 +3841,18 @@
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="77">
         <f>C42*C40</f>
-        <v>9.6859069999163661E-12</v>
+        <v>1.3392767633842976E-13</v>
       </c>
       <c r="D43" s="78" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="79">
         <f>E42+$E$40</f>
-        <v>-110.15439977141739</v>
+        <v>-128.7470993811757</v>
       </c>
       <c r="F43" s="78" t="s">
         <v>6</v>
@@ -3824,12 +3871,12 @@
       </c>
       <c r="C44" s="80">
         <f>C42/C31</f>
-        <v>4.2689453979495706</v>
+        <v>30.221818982444642</v>
       </c>
       <c r="D44" s="78"/>
       <c r="E44" s="79">
         <f>10*LOG10(C44)</f>
-        <v>6.3032059998528789</v>
+        <v>14.80320599985288</v>
       </c>
       <c r="F44" s="78" t="s">
         <v>2</v>
@@ -3844,16 +3891,16 @@
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="76" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C45" s="81">
         <f>C43/C31</f>
-        <v>2185.7000437501802</v>
+        <v>30.221818982444642</v>
       </c>
       <c r="D45" s="78"/>
       <c r="E45" s="79">
         <f>10*LOG10(C45)</f>
-        <v>33.395905609611191</v>
+        <v>14.80320599985288</v>
       </c>
       <c r="F45" s="82" t="s">
         <v>2</v>
@@ -3865,20 +3912,19 @@
       <c r="L45" s="16"/>
       <c r="M45" s="21"/>
     </row>
-    <row r="46" spans="2:13" ht="15" thickBot="1">
-      <c r="B46" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="84">
-        <f>10^(E46/10)</f>
-        <v>218.57000437501839</v>
-      </c>
-      <c r="D46" s="85"/>
-      <c r="E46" s="86">
-        <f>E45-10</f>
-        <v>23.395905609611191</v>
-      </c>
-      <c r="F46" s="87" t="s">
+    <row r="46" spans="2:13">
+      <c r="B46" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="81">
+        <f>10*LOG10(E46)</f>
+        <v>10</v>
+      </c>
+      <c r="D46" s="78"/>
+      <c r="E46" s="79">
+        <v>10</v>
+      </c>
+      <c r="F46" s="82" t="s">
         <v>2</v>
       </c>
       <c r="H46" s="16"/>
@@ -3888,13 +3934,22 @@
       <c r="L46" s="16"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="2:13">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47" s="30"/>
+    <row r="47" spans="2:13" ht="15" thickBot="1">
+      <c r="B47" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="84">
+        <f>C45-10^(E47/10)</f>
+        <v>27.199637084200177</v>
+      </c>
+      <c r="D47" s="85"/>
+      <c r="E47" s="86">
+        <f>E45-10</f>
+        <v>4.8032059998528798</v>
+      </c>
+      <c r="F47" s="87" t="s">
+        <v>2</v>
+      </c>
       <c r="H47" s="16"/>
       <c r="I47" s="11"/>
       <c r="J47" s="17"/>
@@ -3908,7 +3963,7 @@
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48" s="91"/>
+      <c r="G48" s="30"/>
       <c r="H48" s="16"/>
       <c r="I48" s="11"/>
       <c r="J48" s="17"/>
@@ -3922,6 +3977,7 @@
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
+      <c r="G49" s="91"/>
       <c r="H49" s="16"/>
       <c r="I49" s="11"/>
       <c r="J49" s="17"/>
@@ -3935,7 +3991,6 @@
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="G50" s="32"/>
       <c r="H50" s="16"/>
       <c r="I50" s="11"/>
       <c r="J50" s="17"/>
@@ -3944,7 +3999,12 @@
       <c r="M50" s="21"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="G51" s="4"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="16"/>
       <c r="I51" s="11"/>
       <c r="J51" s="17"/>
@@ -3971,6 +4031,7 @@
       <c r="M53" s="21"/>
     </row>
     <row r="54" spans="2:14">
+      <c r="G54" s="4"/>
       <c r="H54" s="16"/>
       <c r="I54" s="11"/>
       <c r="J54" s="17"/>
@@ -3979,12 +4040,6 @@
       <c r="M54" s="21"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="36"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="4"/>
       <c r="H55" s="16"/>
       <c r="I55" s="11"/>
       <c r="J55" s="17"/>
@@ -3993,11 +4048,11 @@
       <c r="M55" s="21"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="4"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="16"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="38"/>
       <c r="G56" s="4"/>
       <c r="H56" s="16"/>
       <c r="I56" s="11"/>
@@ -4005,7 +4060,6 @@
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
       <c r="M56" s="21"/>
-      <c r="N56" s="37"/>
     </row>
     <row r="57" spans="2:14">
       <c r="B57" s="4"/>
@@ -4023,108 +4077,108 @@
       <c r="N57" s="37"/>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="10"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="13"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="13"/>
+      <c r="H58" s="16"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="13"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="21"/>
       <c r="N58" s="37"/>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="4"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="16"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="12"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="13"/>
       <c r="L59" s="16"/>
       <c r="M59" s="21"/>
       <c r="N59" s="37"/>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" s="4"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="22"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
       <c r="J60" s="17"/>
-      <c r="K60" s="13"/>
+      <c r="K60" s="12"/>
       <c r="L60" s="16"/>
-      <c r="M60" s="17"/>
+      <c r="M60" s="21"/>
       <c r="N60" s="37"/>
     </row>
     <row r="61" spans="2:14">
       <c r="B61" s="4"/>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="22"/>
       <c r="G61" s="4"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="13"/>
       <c r="L61" s="16"/>
-      <c r="M61" s="21"/>
+      <c r="M61" s="17"/>
       <c r="N61" s="37"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="10"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="16"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
       <c r="L62" s="16"/>
       <c r="M62" s="21"/>
       <c r="N62" s="37"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="4"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="11"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="92"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="11"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="17"/>
-      <c r="K63" s="13"/>
+      <c r="K63" s="16"/>
       <c r="L63" s="16"/>
-      <c r="M63" s="28"/>
+      <c r="M63" s="21"/>
       <c r="N63" s="37"/>
     </row>
     <row r="64" spans="2:14">
       <c r="B64" s="4"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="25"/>
+      <c r="K64" s="13"/>
       <c r="L64" s="16"/>
-      <c r="M64" s="17"/>
+      <c r="M64" s="28"/>
       <c r="N64" s="37"/>
     </row>
     <row r="65" spans="2:14">
@@ -4144,11 +4198,11 @@
     </row>
     <row r="66" spans="2:14">
       <c r="B66" s="4"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="36"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="17"/>
@@ -4159,15 +4213,15 @@
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="4"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="93"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="24"/>
+      <c r="K67" s="25"/>
       <c r="L67" s="16"/>
       <c r="M67" s="17"/>
       <c r="N67" s="37"/>
@@ -4178,69 +4232,69 @@
       <c r="D68" s="24"/>
       <c r="E68" s="17"/>
       <c r="F68" s="24"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="25"/>
+      <c r="K68" s="24"/>
       <c r="L68" s="16"/>
       <c r="M68" s="17"/>
       <c r="N68" s="37"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="36"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="24"/>
       <c r="G69" s="36"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="38"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="16"/>
       <c r="M69" s="17"/>
       <c r="N69" s="37"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="40"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="16"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="38"/>
       <c r="M70" s="17"/>
       <c r="N70" s="37"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="34"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="17"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="4"/>
       <c r="H71" s="16"/>
-      <c r="I71" s="14"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="16"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="16"/>
-      <c r="M71" s="21"/>
+      <c r="M71" s="17"/>
       <c r="N71" s="37"/>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="10"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="16"/>
-      <c r="D72" s="9"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="17"/>
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
@@ -4248,14 +4302,14 @@
       <c r="N72" s="37"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="4"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="16"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="17"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="16"/>
       <c r="J73" s="17"/>
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
@@ -4264,32 +4318,32 @@
     </row>
     <row r="74" spans="2:14">
       <c r="B74" s="4"/>
-      <c r="C74" s="9"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="4"/>
       <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="F74" s="16"/>
       <c r="G74" s="4"/>
       <c r="H74" s="16"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
+      <c r="K74" s="16"/>
       <c r="L74" s="16"/>
-      <c r="M74" s="17"/>
+      <c r="M74" s="21"/>
       <c r="N74" s="37"/>
     </row>
     <row r="75" spans="2:14">
-      <c r="B75" s="26"/>
+      <c r="B75" s="4"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
       <c r="G75" s="4"/>
       <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="16"/>
+      <c r="K75" s="17"/>
       <c r="L75" s="16"/>
-      <c r="M75" s="21"/>
+      <c r="M75" s="17"/>
       <c r="N75" s="37"/>
     </row>
     <row r="76" spans="2:14">
@@ -4309,25 +4363,25 @@
     </row>
     <row r="77" spans="2:14">
       <c r="B77" s="26"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="4"/>
       <c r="H77" s="16"/>
-      <c r="I77" s="17"/>
+      <c r="I77" s="16"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
+      <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="21"/>
       <c r="N77" s="37"/>
     </row>
     <row r="78" spans="2:14">
-      <c r="B78" s="4"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="4"/>
       <c r="H78" s="16"/>
       <c r="I78" s="17"/>
@@ -4349,7 +4403,7 @@
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="16"/>
-      <c r="M79" s="17"/>
+      <c r="M79" s="21"/>
       <c r="N79" s="37"/>
     </row>
     <row r="80" spans="2:14">
@@ -4359,10 +4413,10 @@
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
       <c r="L80" s="16"/>
       <c r="M80" s="17"/>
       <c r="N80" s="37"/>
@@ -4374,10 +4428,10 @@
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
       <c r="L81" s="16"/>
       <c r="M81" s="17"/>
       <c r="N81" s="37"/>
@@ -4562,13 +4616,28 @@
       <c r="M93" s="17"/>
       <c r="N93" s="37"/>
     </row>
+    <row r="94" spans="2:14">
+      <c r="B94" s="4"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="37"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C64:D66 F64:F66 H64:I66 K64:K66 H68:I68 K68 E55 C55 C42:C43 E42:E45">
+  <conditionalFormatting sqref="C65:D67 F65:F67 H65:I67 K65:K67 H69:I69 K69 E56 C56 C42:C43 E42:E46">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66:D68 F66:F68 C55 C45">
+  <conditionalFormatting sqref="C67:D69 F67:F69 C56 C45:C46">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>5</formula>
     </cfRule>

--- a/Ground Station/Link Budgets.xlsx
+++ b/Ground Station/Link Budgets.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="0" windowWidth="24740" windowHeight="15620" activeTab="1"/>
+    <workbookView xWindow="4860" yWindow="0" windowWidth="24740" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Sprite Link Budget" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,8 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="P - Personal View" guid="{56B56577-359B-4FEF-8511-5634C3B3AD8C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1017" windowHeight="629" activeSheetId="1"/>
     <customWorkbookView name="Justin Atchison - Personal View" guid="{DF438D20-ED32-4502-BBF3-1338727B4A2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1011" windowHeight="646" activeSheetId="1"/>
-    <customWorkbookView name="P - Personal View" guid="{56B56577-359B-4FEF-8511-5634C3B3AD8C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1017" windowHeight="629" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1289,8 +1289,8 @@
   </sheetPr>
   <dimension ref="B1:P93"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1774,11 +1774,11 @@
       </c>
       <c r="C26" s="68">
         <f>10^(E26/10)</f>
-        <v>50.118723362727238</v>
+        <v>10</v>
       </c>
       <c r="D26" s="95"/>
       <c r="E26" s="99">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F26" s="96" t="s">
         <v>2</v>
@@ -1826,11 +1826,11 @@
       </c>
       <c r="C28" s="108">
         <f>10^(E28/10)</f>
-        <v>3.1622776601683795</v>
+        <v>25.118864315095799</v>
       </c>
       <c r="D28" s="109"/>
       <c r="E28" s="110">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F28" s="106" t="s">
         <v>2</v>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="C31" s="71">
         <f>$C$7*C27*(C30*1000)*C28</f>
-        <v>6.3306994202824191E-16</v>
+        <v>5.0286532950829657E-15</v>
       </c>
       <c r="D31" s="94" t="s">
         <v>7</v>
@@ -2139,14 +2139,14 @@
       </c>
       <c r="C42" s="77">
         <f>$C$34*$C$23*C29*$C$24*C26*C33</f>
-        <v>1.2774089166453613E-15</v>
+        <v>2.5487658721877117E-16</v>
       </c>
       <c r="D42" s="78" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="79">
         <f>$E$34+$E$23+$E$24+E29+E26+E33</f>
-        <v>-148.952503286352</v>
+        <v>-155.952503286352</v>
       </c>
       <c r="F42" s="78" t="s">
         <v>6</v>
@@ -2165,12 +2165,12 @@
       </c>
       <c r="C43" s="80">
         <f>C42/C31</f>
-        <v>2.017800612287441</v>
+        <v>5.0684859794965453E-2</v>
       </c>
       <c r="D43" s="78"/>
       <c r="E43" s="79">
         <f>10*LOG10(C43)</f>
-        <v>3.0487824948191315</v>
+        <v>-12.951217505180868</v>
       </c>
       <c r="F43" s="78" t="s">
         <v>2</v>
@@ -2189,12 +2189,12 @@
       </c>
       <c r="C44" s="81">
         <f>C42*C40/C31</f>
-        <v>1033.1139134911698</v>
+        <v>25.950648215022312</v>
       </c>
       <c r="D44" s="78"/>
       <c r="E44" s="79">
         <f>10*LOG10(C44)</f>
-        <v>30.141482104577442</v>
+        <v>14.141482104577438</v>
       </c>
       <c r="F44" s="82" t="s">
         <v>2</v>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="C46" s="84">
         <f>C44-C45</f>
-        <v>1023.1139134911698</v>
+        <v>15.950648215022312</v>
       </c>
       <c r="D46" s="85"/>
       <c r="E46" s="86">
         <f>E44-10</f>
-        <v>20.141482104577442</v>
+        <v>4.1414821045774382</v>
       </c>
       <c r="F46" s="87" t="s">
         <v>2</v>
@@ -2924,13 +2924,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DF438D20-ED32-4502-BBF3-1338727B4A2A}" showRuler="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <customSheetView guid="{56B56577-359B-4FEF-8511-5634C3B3AD8C}" showRuler="0">
+      <selection activeCell="L18" sqref="L18"/>
       <pageSetup orientation="portrait"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{56B56577-359B-4FEF-8511-5634C3B3AD8C}" showRuler="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <customSheetView guid="{DF438D20-ED32-4502-BBF3-1338727B4A2A}" showRuler="0">
+      <selection activeCell="D24" sqref="D24"/>
       <pageSetup orientation="portrait"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -2969,7 +2969,7 @@
   </sheetPr>
   <dimension ref="B1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
